--- a/documentation/Product Backlog.xlsx
+++ b/documentation/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcorley\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lanthorr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74866A28-4BAB-4A0A-B5C3-34B3C6CF265C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49238FAE-0840-490A-BBD4-1C10EC8F8825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Priority</t>
   </si>
@@ -92,9 +92,6 @@
     <t>I am able to use the item</t>
   </si>
   <si>
-    <t>drop item</t>
-  </si>
-  <si>
     <t>I can manage available inventory space</t>
   </si>
   <si>
@@ -102,6 +99,15 @@
   </si>
   <si>
     <t>interact with npc (e.g., fight enemy / talk to person / open door)</t>
+  </si>
+  <si>
+    <t>the system to be able to generate new maps</t>
+  </si>
+  <si>
+    <t>each playthrough of the game is unique</t>
+  </si>
+  <si>
+    <t>drop item at location</t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -490,7 +496,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -505,7 +511,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -520,7 +526,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -535,7 +541,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -550,7 +556,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -565,7 +571,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
@@ -580,39 +586,47 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
